--- a/OpFlixBD/M_DiagramaFisico_BrunoHenriqueSilva.xlsx
+++ b/OpFlixBD/M_DiagramaFisico_BrunoHenriqueSilva.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\38940293827\Documents\2s2019-sprint-1-bd\2s2019-sprint-1-bd\OpFlixBD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\38940293827\Documents\2s2019-sprint-1-bd-OpFlix\2s2019-sprint-1-bd-OpFlix\OpFlixBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9C905C-68A8-47A1-841F-6FB602360FC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54FD1C8-AE79-46EC-901F-610F44B65B65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{5E4BD51B-6952-4325-AC1E-65BCD3EA2D0D}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
-    <t>Usuário</t>
-  </si>
-  <si>
     <t>IdUsuário</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>MeiosVeiculaçãoFilmesSéries</t>
+  </si>
+  <si>
+    <t>Usuários</t>
   </si>
 </sst>
 </file>
@@ -276,6 +276,14 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -285,18 +293,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -622,7 +622,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,390 +639,390 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
         <v>9</v>
       </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="I11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="I15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>200</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>43580</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>162</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>40165</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>40482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>40650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="1">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="4">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="4">
-        <v>6</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9" s="4">
-        <v>7</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H10" s="4">
-        <v>8</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H11" s="4">
-        <v>9</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H12" s="4">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="I15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>200</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>43580</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>162</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
-        <v>40165</v>
-      </c>
-      <c r="I18" s="4">
-        <v>2</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>3</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4">
-        <v>9</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="8">
-        <v>40482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>4</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" s="4">
-        <v>8</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2</v>
-      </c>
-      <c r="G20" s="8">
-        <v>40650</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="D23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>1</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="4">
-        <v>2</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>2</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="4">
-        <v>3</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>3</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="4">
-        <v>4</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="E27" s="1">
         <v>3</v>
       </c>
     </row>

--- a/OpFlixBD/M_DiagramaFisico_BrunoHenriqueSilva.xlsx
+++ b/OpFlixBD/M_DiagramaFisico_BrunoHenriqueSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\38940293827\Documents\2s2019-sprint-1-bd-OpFlix\2s2019-sprint-1-bd-OpFlix\OpFlixBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54FD1C8-AE79-46EC-901F-610F44B65B65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F33EB07-F317-4A9C-B272-841344803536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{5E4BD51B-6952-4325-AC1E-65BCD3EA2D0D}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
-  <si>
-    <t>IdUsuário</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Nome</t>
   </si>
@@ -36,9 +33,6 @@
     <t>TipoUsuário</t>
   </si>
   <si>
-    <t xml:space="preserve">Tadeu </t>
-  </si>
-  <si>
     <t>Administrador</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>Erik</t>
   </si>
   <si>
-    <t>Bruno</t>
-  </si>
-  <si>
     <t>Ação</t>
   </si>
   <si>
@@ -168,13 +159,43 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t>MeiosVeiculaçãoPlataforma</t>
-  </si>
-  <si>
-    <t>MeiosVeiculaçãoFilmesSéries</t>
-  </si>
-  <si>
     <t>Usuários</t>
+  </si>
+  <si>
+    <t>OndeLanca</t>
+  </si>
+  <si>
+    <t>MeiosVeiculação</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>IdUsuario</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>IdTipoUsuario</t>
+  </si>
+  <si>
+    <t>Cassiana</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>erik@email.com</t>
+  </si>
+  <si>
+    <t>cassiana@email.com</t>
+  </si>
+  <si>
+    <t>helena@email.com</t>
+  </si>
+  <si>
+    <t>rob@email.com</t>
   </si>
 </sst>
 </file>
@@ -241,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -259,6 +280,144 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -274,14 +433,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -293,10 +449,23 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -619,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586905B3-1D11-449C-8F1C-839B66030BD5}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,128 +801,99 @@
     <col min="3" max="3" width="94.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="H1" s="7" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="14"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="14"/>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
+      <c r="A5" s="13"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="14"/>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
       <c r="H6" s="1">
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -761,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -769,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -777,7 +917,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -785,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -793,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -801,51 +941,51 @@
         <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="I15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="9"/>
+      <c r="A15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -853,10 +993,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -874,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -882,10 +1022,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -903,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -911,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -934,10 +1074,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -953,29 +1093,29 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="D22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="3"/>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -989,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -1003,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -1017,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D27" s="1">
         <v>4</v>
@@ -1026,11 +1166,105 @@
         <v>3</v>
       </c>
     </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="1">
+        <v>123456</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="1">
+        <v>123456</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="1">
+        <v>123456</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3110</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D30:H30"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A15:G15"/>

--- a/OpFlixBD/M_DiagramaFisico_BrunoHenriqueSilva.xlsx
+++ b/OpFlixBD/M_DiagramaFisico_BrunoHenriqueSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\38940293827\Documents\2s2019-sprint-1-bd-OpFlix\2s2019-sprint-1-bd-OpFlix\OpFlixBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F33EB07-F317-4A9C-B272-841344803536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676BEDF4-5253-40F7-B216-565338C3DF57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{5E4BD51B-6952-4325-AC1E-65BCD3EA2D0D}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>Românticas</t>
   </si>
   <si>
-    <t>FilmesSéries</t>
-  </si>
-  <si>
     <t>IdFilmeSérie</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>rob@email.com</t>
+  </si>
+  <si>
+    <t>OpFlix</t>
   </si>
 </sst>
 </file>
@@ -437,21 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -462,10 +447,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586905B3-1D11-449C-8F1C-839B66030BD5}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +799,7 @@
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="94.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -809,24 +809,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="H1" s="6" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
@@ -841,9 +841,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="14"/>
+      <c r="C3" s="9"/>
       <c r="E3" s="1">
         <v>1</v>
       </c>
@@ -858,9 +858,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="14"/>
+      <c r="C4" s="9"/>
       <c r="E4" s="1">
         <v>2</v>
       </c>
@@ -875,9 +875,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="9"/>
       <c r="H5" s="1">
         <v>3</v>
       </c>
@@ -886,9 +886,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
       <c r="H6" s="1">
         <v>4</v>
       </c>
@@ -945,47 +945,47 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="I15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="7"/>
+      <c r="A15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="I15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1022,10 +1022,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1051,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -1074,10 +1074,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -1093,29 +1093,29 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="14"/>
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -1143,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -1157,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="1">
         <v>4</v>
@@ -1167,29 +1167,29 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="D30" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1200,7 +1200,7 @@
         <v>9</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="1">
         <v>123456</v>
@@ -1214,10 +1214,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" s="1">
         <v>123456</v>
@@ -1234,7 +1234,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" s="1">
         <v>123456</v>
@@ -1248,10 +1248,10 @@
         <v>4</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" s="1">
         <v>3110</v>

--- a/OpFlixBD/M_DiagramaFisico_BrunoHenriqueSilva.xlsx
+++ b/OpFlixBD/M_DiagramaFisico_BrunoHenriqueSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\38940293827\Documents\2s2019-sprint-1-bd-OpFlix\2s2019-sprint-1-bd-OpFlix\OpFlixBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676BEDF4-5253-40F7-B216-565338C3DF57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA30FA6-7FAC-4D1B-B1F9-DECFDB8BD64C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{5E4BD51B-6952-4325-AC1E-65BCD3EA2D0D}"/>
   </bookViews>
@@ -202,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +213,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -424,7 +432,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -432,8 +440,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -468,14 +477,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
     <cellStyle name="Ênfase2" xfId="2" builtinId="33"/>
     <cellStyle name="Ênfase3" xfId="3" builtinId="37"/>
     <cellStyle name="Ênfase4" xfId="4" builtinId="41"/>
     <cellStyle name="Ênfase5" xfId="5" builtinId="45"/>
     <cellStyle name="Ênfase6" xfId="6" builtinId="49"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -791,7 +802,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1210,7 @@
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="20" t="s">
         <v>52</v>
       </c>
       <c r="G32" s="1">
@@ -1216,7 +1227,7 @@
       <c r="E33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="20" t="s">
         <v>53</v>
       </c>
       <c r="G33" s="1">
@@ -1233,7 +1244,7 @@
       <c r="E34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="20" t="s">
         <v>54</v>
       </c>
       <c r="G34" s="1">
@@ -1250,7 +1261,7 @@
       <c r="E35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="20" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="1">
@@ -1270,7 +1281,13 @@
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="I15:J15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F32" r:id="rId1" xr:uid="{95C0AD57-AD4A-4CD0-99E2-2C0EB560BFA7}"/>
+    <hyperlink ref="F33" r:id="rId2" xr:uid="{EC6C4858-35ED-4BB3-AF40-AA72A6BA6223}"/>
+    <hyperlink ref="F34" r:id="rId3" xr:uid="{3ED48C29-6D0E-4586-A6A1-57998890D7E5}"/>
+    <hyperlink ref="F35" r:id="rId4" xr:uid="{3AB4C302-4F03-462A-B3FC-E8284FBFC774}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/OpFlixBD/M_DiagramaFisico_BrunoHenriqueSilva.xlsx
+++ b/OpFlixBD/M_DiagramaFisico_BrunoHenriqueSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\38940293827\Documents\2s2019-sprint-1-bd-OpFlix\2s2019-sprint-1-bd-OpFlix\OpFlixBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA30FA6-7FAC-4D1B-B1F9-DECFDB8BD64C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA0FE46-4960-46DF-AB3D-2EBED5CAC27D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{5E4BD51B-6952-4325-AC1E-65BCD3EA2D0D}"/>
   </bookViews>
@@ -456,6 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,7 +478,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
@@ -802,7 +802,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="I15" sqref="I15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,14 +824,14 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="H1" s="17" t="s">
+      <c r="E1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -956,19 +956,19 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="I15" s="19" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="I15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="19"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1104,16 +1104,16 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="15"/>
       <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,13 +1178,13 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
@@ -1210,7 +1210,7 @@
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G32" s="1">
@@ -1227,7 +1227,7 @@
       <c r="E33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="13" t="s">
         <v>53</v>
       </c>
       <c r="G33" s="1">
@@ -1244,7 +1244,7 @@
       <c r="E34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G34" s="1">
@@ -1261,7 +1261,7 @@
       <c r="E35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G35" s="1">

--- a/OpFlixBD/M_DiagramaFisico_BrunoHenriqueSilva.xlsx
+++ b/OpFlixBD/M_DiagramaFisico_BrunoHenriqueSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\38940293827\Documents\2s2019-sprint-1-bd-OpFlix\2s2019-sprint-1-bd-OpFlix\OpFlixBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA0FE46-4960-46DF-AB3D-2EBED5CAC27D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6D7920-7B95-4E37-8CBE-EF50B9470D74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{5E4BD51B-6952-4325-AC1E-65BCD3EA2D0D}"/>
   </bookViews>
@@ -195,7 +195,7 @@
     <t>rob@email.com</t>
   </si>
   <si>
-    <t>OpFlix</t>
+    <t>Lançamento</t>
   </si>
 </sst>
 </file>
@@ -802,7 +802,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:J15"/>
+      <selection activeCell="A15" sqref="A15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
